--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G397"/>
+  <dimension ref="A1:G400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10376,6 +10376,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>17630320000000</v>
+      </c>
+      <c r="D398" t="n">
+        <v>17630320000000</v>
+      </c>
+      <c r="E398" t="n">
+        <v>17630320000000</v>
+      </c>
+      <c r="F398" t="n">
+        <v>17630320000000</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>17786600000000</v>
+      </c>
+      <c r="D399" t="n">
+        <v>17786600000000</v>
+      </c>
+      <c r="E399" t="n">
+        <v>17786600000000</v>
+      </c>
+      <c r="F399" t="n">
+        <v>17786600000000</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>18121910000000</v>
+      </c>
+      <c r="D400" t="n">
+        <v>18121910000000</v>
+      </c>
+      <c r="E400" t="n">
+        <v>18121910000000</v>
+      </c>
+      <c r="F400" t="n">
+        <v>18121910000000</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -10448,6 +10448,31 @@
         <v>18121910000000</v>
       </c>
       <c r="G400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>18199100000000</v>
+      </c>
+      <c r="D401" t="n">
+        <v>18199100000000</v>
+      </c>
+      <c r="E401" t="n">
+        <v>18199100000000</v>
+      </c>
+      <c r="F401" t="n">
+        <v>18199100000000</v>
+      </c>
+      <c r="G401" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10476,6 +10476,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>18871680000000</v>
+      </c>
+      <c r="D402" t="n">
+        <v>18871680000000</v>
+      </c>
+      <c r="E402" t="n">
+        <v>18871680000000</v>
+      </c>
+      <c r="F402" t="n">
+        <v>18871680000000</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>18742500000000</v>
+      </c>
+      <c r="D403" t="n">
+        <v>18742500000000</v>
+      </c>
+      <c r="E403" t="n">
+        <v>18742500000000</v>
+      </c>
+      <c r="F403" t="n">
+        <v>18742500000000</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BDM2</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>18768650000000</v>
+      </c>
+      <c r="D404" t="n">
+        <v>18768650000000</v>
+      </c>
+      <c r="E404" t="n">
+        <v>18768650000000</v>
+      </c>
+      <c r="F404" t="n">
+        <v>18768650000000</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Bangladesh_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G404"/>
+  <dimension ref="A1:G405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9699,6 +9699,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="2">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>18772460000000</v>
+      </c>
+      <c r="D405">
+        <v>18772460000000</v>
+      </c>
+      <c r="E405">
+        <v>18772460000000</v>
+      </c>
+      <c r="F405">
+        <v>18772460000000</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
